--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_4_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_4_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[5.226362599550466, 5.924837173476503]</t>
+          <t>[5.225396241644117, 5.925803531382852]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.14449908462650907, 0.30320503002183496]</t>
+          <t>[-0.14451343998690636, 0.30321938538223225]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.4789288652090868</v>
+        <v>0.4789569018824889</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4789288652090868</v>
+        <v>0.4789569018824889</v>
       </c>
       <c r="W2" t="n">
         <v>6.102842842842975</v>
